--- a/analysis/xlsx/2020/2020_VIP_유저.xlsx
+++ b/analysis/xlsx/2020/2020_VIP_유저.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>연도</t>
-  </si>
-  <si>
     <t>비율</t>
   </si>
   <si>
-    <t>공급가액</t>
-  </si>
-  <si>
-    <t>상위 10%</t>
-  </si>
-  <si>
-    <t>상위 20%</t>
-  </si>
-  <si>
-    <t>상위 30%</t>
+    <t>실제공급가액(억)</t>
+  </si>
+  <si>
+    <t>예측공급가액(억)</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>30%</t>
   </si>
 </sst>
 </file>
@@ -407,36 +407,36 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2020</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>2.55649</v>
+      </c>
       <c r="C2">
-        <v>255649000</v>
+        <v>3.11940419013764</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2020</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <v>4.55246</v>
+      </c>
       <c r="C3">
-        <v>455246000</v>
+        <v>5.554867337417318</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2020</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>6.28308</v>
+      </c>
       <c r="C4">
-        <v>628308000</v>
+        <v>7.666553</v>
       </c>
     </row>
   </sheetData>
